--- a/Arbeitspakete.xlsx
+++ b/Arbeitspakete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias Haußler\Documents\Schule\Informatik\Projekt\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5877694-8889-48F9-A4FC-3FFC10CABAE2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9840B18E-1062-4865-B46E-48DF67CAF6E0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{5D2BCC53-3027-473A-B3E9-3DE97185D49E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{5D2BCC53-3027-473A-B3E9-3DE97185D49E}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,11 @@
     <sheet name="1.5" sheetId="12" r:id="rId7"/>
     <sheet name="1.6" sheetId="13" r:id="rId8"/>
     <sheet name="Arbeitspakte 2.0" sheetId="4" r:id="rId9"/>
-    <sheet name="Arbeitspaket 3.0" sheetId="5" r:id="rId10"/>
-    <sheet name="Arbeitspaket 4.0" sheetId="6" r:id="rId11"/>
-    <sheet name="Arbeitspaket 5.0" sheetId="7" r:id="rId12"/>
-    <sheet name="Arbeitspaket 6.0" sheetId="8" r:id="rId13"/>
+    <sheet name="2.1" sheetId="14" r:id="rId10"/>
+    <sheet name="Arbeitspaket 3.0" sheetId="5" r:id="rId11"/>
+    <sheet name="Arbeitspaket 4.0" sheetId="6" r:id="rId12"/>
+    <sheet name="Arbeitspaket 5.0" sheetId="7" r:id="rId13"/>
+    <sheet name="Arbeitspaket 6.0" sheetId="8" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="109">
   <si>
     <t>Arbeitspakete</t>
   </si>
@@ -1110,6 +1111,60 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB09814B-ED3E-4BE0-9E66-46ADBF516B4A}">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF466143-9217-42F0-8BE0-1EF8D25FF725}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -1173,7 +1228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F26AB91-F678-41B3-8916-3CAAF898EFC2}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -1237,7 +1292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CB4D17-EEEE-4C81-B1DA-70E2E9F5F259}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -1298,7 +1353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBA3454-7B4A-49B4-AC19-A7218A1475E4}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -1811,7 +1866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576AAAED-F920-4EE2-803C-A2A04310F285}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/Arbeitspakete.xlsx
+++ b/Arbeitspakete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias Haußler\Documents\Schule\Informatik\Projekt\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9840B18E-1062-4865-B46E-48DF67CAF6E0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52BFACA-E629-4244-893D-50C51D375C66}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{5D2BCC53-3027-473A-B3E9-3DE97185D49E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{5D2BCC53-3027-473A-B3E9-3DE97185D49E}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,31 @@
     <sheet name="1.6" sheetId="13" r:id="rId8"/>
     <sheet name="Arbeitspakte 2.0" sheetId="4" r:id="rId9"/>
     <sheet name="2.1" sheetId="14" r:id="rId10"/>
-    <sheet name="Arbeitspaket 3.0" sheetId="5" r:id="rId11"/>
-    <sheet name="Arbeitspaket 4.0" sheetId="6" r:id="rId12"/>
-    <sheet name="Arbeitspaket 5.0" sheetId="7" r:id="rId13"/>
-    <sheet name="Arbeitspaket 6.0" sheetId="8" r:id="rId14"/>
+    <sheet name="2.1.1" sheetId="16" r:id="rId11"/>
+    <sheet name="2.1.2" sheetId="17" r:id="rId12"/>
+    <sheet name="2.1.3" sheetId="18" r:id="rId13"/>
+    <sheet name="2.2" sheetId="15" r:id="rId14"/>
+    <sheet name="2.2.1" sheetId="19" r:id="rId15"/>
+    <sheet name="Arbeitspaket 3.0" sheetId="5" r:id="rId16"/>
+    <sheet name="3.1" sheetId="20" r:id="rId17"/>
+    <sheet name="3.1.1" sheetId="21" r:id="rId18"/>
+    <sheet name="3.1.2" sheetId="22" r:id="rId19"/>
+    <sheet name="3.1.3" sheetId="23" r:id="rId20"/>
+    <sheet name="3.2" sheetId="24" r:id="rId21"/>
+    <sheet name="3.2.1" sheetId="25" r:id="rId22"/>
+    <sheet name="3.2.2" sheetId="26" r:id="rId23"/>
+    <sheet name="3.2.3" sheetId="27" r:id="rId24"/>
+    <sheet name="Arbeitspaket 4.0" sheetId="6" r:id="rId25"/>
+    <sheet name="4.1" sheetId="28" r:id="rId26"/>
+    <sheet name="4.2" sheetId="29" r:id="rId27"/>
+    <sheet name="Arbeitspaket 5.0" sheetId="7" r:id="rId28"/>
+    <sheet name="5.1" sheetId="30" r:id="rId29"/>
+    <sheet name="5.2" sheetId="31" r:id="rId30"/>
+    <sheet name="Arbeitspaket 6.0" sheetId="8" r:id="rId31"/>
+    <sheet name="6.1" sheetId="32" r:id="rId32"/>
+    <sheet name="6.1.1" sheetId="33" r:id="rId33"/>
+    <sheet name="6.1.2" sheetId="34" r:id="rId34"/>
+    <sheet name="6.2" sheetId="35" r:id="rId35"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="209">
   <si>
     <t>Arbeitspakete</t>
   </si>
@@ -211,24 +232,6 @@
     <t>Sonstiges (6.1.2)</t>
   </si>
   <si>
-    <t>Objekte (7.0)</t>
-  </si>
-  <si>
-    <t>Ball (7.1)</t>
-  </si>
-  <si>
-    <t>Korb (7.2)</t>
-  </si>
-  <si>
-    <t>Spielfigur (7.3)</t>
-  </si>
-  <si>
-    <t>Parameter (7.4)</t>
-  </si>
-  <si>
-    <t>Spieler (7.5)</t>
-  </si>
-  <si>
     <t>Programmieren aller Objekte</t>
   </si>
   <si>
@@ -371,6 +374,324 @@
   </si>
   <si>
     <t>Stärke des Wurfs durch betätigen der Parameter</t>
+  </si>
+  <si>
+    <t>Arbeitspaket Nr 2.1</t>
+  </si>
+  <si>
+    <t>Interaktion</t>
+  </si>
+  <si>
+    <t>Spiellogik</t>
+  </si>
+  <si>
+    <t>benötig für Grafiken</t>
+  </si>
+  <si>
+    <t>Arbeitspaket Nr 2.2</t>
+  </si>
+  <si>
+    <t>Benutzer</t>
+  </si>
+  <si>
+    <t>benötigt für Grafik</t>
+  </si>
+  <si>
+    <t>Arbeitspaket Nr 2.1.1</t>
+  </si>
+  <si>
+    <t>Startbildschirm</t>
+  </si>
+  <si>
+    <t>Start-Button</t>
+  </si>
+  <si>
+    <t>Einstellungen</t>
+  </si>
+  <si>
+    <t>Schwierigkeiten</t>
+  </si>
+  <si>
+    <t>Arbeitspaket Nr 2.1.2</t>
+  </si>
+  <si>
+    <t>Satistiken</t>
+  </si>
+  <si>
+    <t>Treffer insgesamt</t>
+  </si>
+  <si>
+    <t>Spielzeit</t>
+  </si>
+  <si>
+    <t>Würfe</t>
+  </si>
+  <si>
+    <t>weiteres?</t>
+  </si>
+  <si>
+    <t>Speicher?</t>
+  </si>
+  <si>
+    <t>Arbeitspaket Nr 2.1.3</t>
+  </si>
+  <si>
+    <t>Zwischenscreens</t>
+  </si>
+  <si>
+    <t>Gewonnen</t>
+  </si>
+  <si>
+    <t>Verloren</t>
+  </si>
+  <si>
+    <t>Lautstärke (Ton+Sound)</t>
+  </si>
+  <si>
+    <t>Impressum</t>
+  </si>
+  <si>
+    <t>Ton</t>
+  </si>
+  <si>
+    <t>Arbeitspaket Nr 3.1</t>
+  </si>
+  <si>
+    <t>Objektinteraktion</t>
+  </si>
+  <si>
+    <t>Koordinatensystem</t>
+  </si>
+  <si>
+    <t>Basis</t>
+  </si>
+  <si>
+    <t>(Objekte)</t>
+  </si>
+  <si>
+    <t>Parabel</t>
+  </si>
+  <si>
+    <t>Arbeitspaket Nr 3.1.1</t>
+  </si>
+  <si>
+    <t>Ball-Korb</t>
+  </si>
+  <si>
+    <t>Objekte</t>
+  </si>
+  <si>
+    <t>Treffer</t>
+  </si>
+  <si>
+    <t>Abprallen</t>
+  </si>
+  <si>
+    <t>Flugkurve</t>
+  </si>
+  <si>
+    <t>Arbeitspaket Nr 3.1.2</t>
+  </si>
+  <si>
+    <t>Spieler-Wurf</t>
+  </si>
+  <si>
+    <t>Objekte (inkl. Parameter)</t>
+  </si>
+  <si>
+    <t>Sprung?</t>
+  </si>
+  <si>
+    <t>berechnen der Parabel</t>
+  </si>
+  <si>
+    <t>Startpunkt des Balls</t>
+  </si>
+  <si>
+    <t>Ball</t>
+  </si>
+  <si>
+    <t>Objekt</t>
+  </si>
+  <si>
+    <t>Flug</t>
+  </si>
+  <si>
+    <t>Arbeitspaket Nr 3.2</t>
+  </si>
+  <si>
+    <t>Schwierigkeit</t>
+  </si>
+  <si>
+    <t>verändern der Parameter</t>
+  </si>
+  <si>
+    <t>bewegen von Objekten</t>
+  </si>
+  <si>
+    <t>Arbeitspaket Nr 3.2.1</t>
+  </si>
+  <si>
+    <t>Winkel</t>
+  </si>
+  <si>
+    <t>Arbeitspaket Nr 3.2.2</t>
+  </si>
+  <si>
+    <t>Arbeitspaket Nr 3.2.3</t>
+  </si>
+  <si>
+    <t>Flugverhalten</t>
+  </si>
+  <si>
+    <t>verändern der Gravitation</t>
+  </si>
+  <si>
+    <t>Arbeitspaket Nr 4.1</t>
+  </si>
+  <si>
+    <t>Information (4.1)</t>
+  </si>
+  <si>
+    <t>Einfügen (4.2)</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>1/2 Wochen</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Einfügen von Grafiken in Java</t>
+  </si>
+  <si>
+    <t>Auch Ton</t>
+  </si>
+  <si>
+    <t>Vorstellung vor Anderen</t>
+  </si>
+  <si>
+    <t>Arbeitspaket Nr 4.2</t>
+  </si>
+  <si>
+    <t>Einfügen von Ton und Grafik in Programm</t>
+  </si>
+  <si>
+    <t>Grafiken+Ton</t>
+  </si>
+  <si>
+    <t>Arbeitspaket Nr 5.1</t>
+  </si>
+  <si>
+    <t>Hintergrundmusik</t>
+  </si>
+  <si>
+    <t>2/3 Tage</t>
+  </si>
+  <si>
+    <t>Suchen einer passenden Hintergrundmusik</t>
+  </si>
+  <si>
+    <t>gediegen</t>
+  </si>
+  <si>
+    <t>Dauerschleife</t>
+  </si>
+  <si>
+    <t>Arbeitspaket Nr 5.2</t>
+  </si>
+  <si>
+    <t>Soundeffekte</t>
+  </si>
+  <si>
+    <t>Oberfläche</t>
+  </si>
+  <si>
+    <t>Suchen und Schneiden von Soundeffekten</t>
+  </si>
+  <si>
+    <t>Korb/Bretttreffer</t>
+  </si>
+  <si>
+    <t>sonstiges "Standardklicken" bei klicken einer Taste</t>
+  </si>
+  <si>
+    <t>Arbeitspaket Nr 6.1</t>
+  </si>
+  <si>
+    <t>Objekte (6.2)</t>
+  </si>
+  <si>
+    <t>Ball (6.2.1)</t>
+  </si>
+  <si>
+    <t>Korb (6.2.2)</t>
+  </si>
+  <si>
+    <t>Spielfigur (6.2.3)</t>
+  </si>
+  <si>
+    <t>Parameter (6.2.4)</t>
+  </si>
+  <si>
+    <t>Spieler (6.2.5)</t>
+  </si>
+  <si>
+    <t>Layout</t>
+  </si>
+  <si>
+    <t>Gimp/Paint/Paint.net oder anderes Programm</t>
+  </si>
+  <si>
+    <t>Programm</t>
+  </si>
+  <si>
+    <t>Absprache mit Oberfläche</t>
+  </si>
+  <si>
+    <t>Arbeitspaket Nr 6.1.1</t>
+  </si>
+  <si>
+    <t>Hintergrund</t>
+  </si>
+  <si>
+    <t>dezenter Hintergrund fürs Spiel</t>
+  </si>
+  <si>
+    <t>nur einfarbig (?) oder vllt Tribüne</t>
+  </si>
+  <si>
+    <t>Arbeitspaket Nr 6.2.2</t>
+  </si>
+  <si>
+    <t>Sonstiges</t>
+  </si>
+  <si>
+    <t>Buttons,…</t>
+  </si>
+  <si>
+    <t>Arbeitspaket Nr 6.2</t>
+  </si>
+  <si>
+    <t>erstellen aller Objekte</t>
+  </si>
+  <si>
+    <t>2/3 Wochen</t>
+  </si>
+  <si>
+    <t>Absprache mit Objektprogrammierer (?)</t>
+  </si>
+  <si>
+    <t>graphisches Erstellen aller Objekte</t>
+  </si>
+  <si>
+    <t>Person-Strichmännchen?</t>
+  </si>
+  <si>
+    <t>verschieden Bilder bei Treffer von Korb und Person?</t>
   </si>
 </sst>
 </file>
@@ -563,7 +884,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -603,6 +924,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -919,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DA5450-180B-4248-B639-478385B6FD8D}">
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -962,6 +1284,12 @@
       <c r="K6" s="19" t="s">
         <v>29</v>
       </c>
+      <c r="M6" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="O6" s="39" t="s">
+        <v>162</v>
+      </c>
       <c r="R6" s="27" t="s">
         <v>44</v>
       </c>
@@ -996,7 +1324,7 @@
         <v>52</v>
       </c>
       <c r="V8" s="34" t="s">
-        <v>55</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1033,7 +1361,7 @@
         <v>53</v>
       </c>
       <c r="V10" s="36" t="s">
-        <v>56</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1056,7 +1384,7 @@
         <v>54</v>
       </c>
       <c r="V11" s="37" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1082,7 +1410,7 @@
         <v>49</v>
       </c>
       <c r="V12" s="37" t="s">
-        <v>58</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1093,7 +1421,7 @@
         <v>50</v>
       </c>
       <c r="V13" s="37" t="s">
-        <v>59</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1101,7 +1429,7 @@
         <v>38</v>
       </c>
       <c r="V14" s="38" t="s">
-        <v>60</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -1112,10 +1440,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB09814B-ED3E-4BE0-9E66-46ADBF516B4A}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1123,40 +1451,52 @@
     <col min="1" max="1" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="35" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="35" t="s">
         <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1165,6 +1505,358 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAA3E43-6963-43D3-8C21-85C24A499F65}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE8D670-952F-4C83-B0E9-7CDDE7F342DC}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0919599C-4DB0-4AAA-B34B-9F0A81D6AB7E}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654A1FA4-A703-418C-8524-4847B6731C4A}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEE9953-19A7-4C6E-BFE7-D34C5C353890}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF466143-9217-42F0-8BE0-1EF8D25FF725}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -1177,7 +1869,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1186,7 +1878,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1195,7 +1887,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1204,7 +1896,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1213,7 +1905,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1228,11 +1920,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F26AB91-F678-41B3-8916-3CAAF898EFC2}">
-  <dimension ref="A1:C15"/>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6782B4-4381-45C8-8695-056B0D3F0EBC}">
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1241,7 +1935,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1250,7 +1944,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1258,18 +1952,12 @@
       <c r="A6" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1277,7 +1965,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1286,13 +1974,781 @@
       <c r="A15" s="35" t="s">
         <v>14</v>
       </c>
+      <c r="C15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9F3821-7A39-40EA-8BD8-96850C330071}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F7404B-D60A-4985-8523-B5E6209FDE5B}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E814EA-A464-4A39-B020-FEFAF681B065}">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07250706-7FF7-413C-9434-D0555A3037BA}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FB251F-F13E-48A0-A328-3495FF1CBDC0}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3FC008-B9CE-4BD4-8480-7799FF32DD57}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C8F749-EF4E-4A03-9BB8-B18A4689BA88}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB64028-8529-491B-ACD2-B0531F1A70AA}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F26AB91-F678-41B3-8916-3CAAF898EFC2}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F3363B-CE02-43B3-B26F-9DF71A5DDD5D}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32799B68-B820-4AB6-A8DB-918B41AEFCA0}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CB4D17-EEEE-4C81-B1DA-70E2E9F5F259}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -1305,7 +2761,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1314,7 +2770,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1323,7 +2779,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1332,7 +2788,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1353,11 +2809,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBA3454-7B4A-49B4-AC19-A7218A1475E4}">
-  <dimension ref="A1:C15"/>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3E0A29-CB8B-4AEC-B8D5-6355D843D42C}">
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1366,7 +2824,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
-        <v>86</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1375,7 +2833,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1384,7 +2842,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1393,7 +2851,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1408,59 +2866,18 @@
       <c r="A15" s="35" t="s">
         <v>14</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E814EA-A464-4A39-B020-FEFAF681B065}">
-  <dimension ref="A1:A15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="35" t="s">
-        <v>14</v>
+      <c r="C15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1481,7 +2898,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1490,7 +2907,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1499,7 +2916,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1508,7 +2925,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1517,7 +2934,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1527,7 +2944,456 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD02900E-7A8A-424B-BBEB-2A121CA5ED45}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBA3454-7B4A-49B4-AC19-A7218A1475E4}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8B5870-3418-4F44-86C1-16547CB5FA91}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F87FB97-4A04-40F2-9F63-CCBD3E6E883C}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C52DA92-2DD8-4867-B446-E70B9498A8AD}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6716EDC-114C-48D6-A2CF-61588500FB1F}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1550,7 +3416,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1559,7 +3425,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1590,22 +3456,22 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1628,7 +3494,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1658,7 +3524,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1668,12 +3534,12 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
@@ -1683,12 +3549,12 @@
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1711,7 +3577,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1741,7 +3607,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1751,27 +3617,27 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1794,7 +3660,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1834,27 +3700,27 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1877,7 +3743,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1914,7 +3780,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1926,7 +3792,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694F149B-94B2-45F5-A5DF-39B24AEEEE4D}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1935,7 +3803,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1944,7 +3812,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1953,7 +3821,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1962,7 +3830,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1971,7 +3839,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1981,7 +3849,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Arbeitspakete.xlsx
+++ b/Arbeitspakete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias Haußler\Documents\Schule\Informatik\Projekt\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52BFACA-E629-4244-893D-50C51D375C66}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D483AB2-B66F-4311-8F75-E719C7AF6DFC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{5D2BCC53-3027-473A-B3E9-3DE97185D49E}"/>
+    <workbookView xWindow="3696" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{5D2BCC53-3027-473A-B3E9-3DE97185D49E}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -1241,7 +1241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DA5450-180B-4248-B639-478385B6FD8D}">
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
@@ -2143,7 +2143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E814EA-A464-4A39-B020-FEFAF681B065}">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Arbeitspakete.xlsx
+++ b/Arbeitspakete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias Haußler\Documents\Schule\Informatik\Projekt\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D483AB2-B66F-4311-8F75-E719C7AF6DFC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243BA087-3CFF-4B1D-AC69-36D086C0B577}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3696" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{5D2BCC53-3027-473A-B3E9-3DE97185D49E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{5D2BCC53-3027-473A-B3E9-3DE97185D49E}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="210">
   <si>
     <t>Arbeitspakete</t>
   </si>
@@ -692,6 +692,9 @@
   </si>
   <si>
     <t>verschieden Bilder bei Treffer von Korb und Person?</t>
+  </si>
+  <si>
+    <t>1-2 Woche</t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DA5450-180B-4248-B639-478385B6FD8D}">
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
@@ -2752,7 +2755,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CB4D17-EEEE-4C81-B1DA-70E2E9F5F259}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2788,7 +2793,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -2889,7 +2894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB9C297-291D-44CC-8CAF-DD518A4545F1}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
